--- a/src/analysis_examples/circadb/results_lomb/cosinor_10533945_ubc_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10533945_ubc_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.18957221335420402, 0.287531350578657]</t>
+          <t>[0.18708868618371055, 0.29001487774915047]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.548195571743349e-09</v>
+        <v>3.66840424703696e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.548195571743349e-09</v>
+        <v>3.66840424703696e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.9308422677303092</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4793119853899988, 0.5317311217401246]</t>
+          <t>[0.47931301856242037, 0.531730088567703]</t>
         </is>
       </c>
       <c r="U2" t="n">
